--- a/Mips_Pipeline_Test.xlsx
+++ b/Mips_Pipeline_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CTI_3rd_year_1\Structure_of_Computer_Systems\SCS-Assignment-Pipeline-MIPS-CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B458508E-140C-4052-9CE8-80B5968CF4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B02CC8-D7B2-416A-90A7-99914D810D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AE386CA4-EDC2-4F06-A869-52A3BC7A21B9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AE386CA4-EDC2-4F06-A869-52A3BC7A21B9}"/>
   </bookViews>
   <sheets>
     <sheet name="instruction_exec" sheetId="1" r:id="rId1"/>
@@ -3551,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2326B967-B418-496E-AAA0-FF8CE45CE59E}">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3847,10 +3847,10 @@
       <c r="R5" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="42" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3909,11 +3909,11 @@
       <c r="R6" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>180</v>
+      <c r="S6" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="T6" s="56" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -3971,11 +3971,11 @@
       <c r="R7" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S7" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="T7" s="56" t="s">
-        <v>195</v>
+      <c r="S7" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="T7" s="41" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -4033,11 +4033,11 @@
       <c r="R8" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="T8" s="41" t="s">
-        <v>210</v>
+      <c r="S8" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="T8" s="62" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -4095,10 +4095,10 @@
       <c r="R9" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="62" t="s">
+      <c r="S9" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="T9" s="62" t="s">
+      <c r="T9" s="63" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4157,10 +4157,10 @@
       <c r="R10" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S10" s="63" t="s">
+      <c r="S10" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="T10" s="63" t="s">
+      <c r="T10" s="42" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4219,10 +4219,10 @@
       <c r="R11" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="S11" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="56" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4281,10 +4281,10 @@
       <c r="R12" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S12" s="56" t="s">
+      <c r="S12" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="T12" s="56" t="s">
+      <c r="T12" s="41" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4343,10 +4343,10 @@
       <c r="R13" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S13" s="41" t="s">
+      <c r="S13" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="T13" s="41" t="s">
+      <c r="T13" s="62" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4405,10 +4405,10 @@
       <c r="R14" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="62" t="s">
+      <c r="S14" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="T14" s="62" t="s">
+      <c r="T14" s="63" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4467,10 +4467,10 @@
       <c r="R15" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="63" t="s">
+      <c r="S15" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="T15" s="63" t="s">
+      <c r="T15" s="42" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4529,10 +4529,10 @@
       <c r="R16" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="42" t="s">
+      <c r="S16" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="42" t="s">
+      <c r="T16" s="56" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4591,10 +4591,10 @@
       <c r="R17" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S17" s="56" t="s">
+      <c r="S17" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="T17" s="56" t="s">
+      <c r="T17" s="41" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4653,10 +4653,10 @@
       <c r="R18" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S18" s="41" t="s">
+      <c r="S18" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="T18" s="41" t="s">
+      <c r="T18" s="62" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4715,10 +4715,10 @@
       <c r="R19" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S19" s="62" t="s">
+      <c r="S19" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="T19" s="62" t="s">
+      <c r="T19" s="63" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4777,10 +4777,10 @@
       <c r="R20" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S20" s="63" t="s">
+      <c r="S20" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="T20" s="63" t="s">
+      <c r="T20" s="42" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4839,10 +4839,10 @@
       <c r="R21" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S21" s="42" t="s">
+      <c r="S21" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="T21" s="42" t="s">
+      <c r="T21" s="56" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4901,10 +4901,10 @@
       <c r="R22" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="S22" s="56" t="s">
+      <c r="S22" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="T22" s="56" t="s">
+      <c r="T22" s="41" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5542,10 +5542,10 @@
       <c r="O33" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S33" s="41" t="s">
+      <c r="S33" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="T33" s="41" t="s">
+      <c r="T33" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6005,10 +6005,10 @@
       <c r="R41" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="S41" s="42" t="s">
+      <c r="S41" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="T41" s="42" t="s">
+      <c r="T41" s="63" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6241,10 +6241,10 @@
       <c r="R45" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="S45" s="62" t="s">
+      <c r="S45" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="T45" s="62" t="s">
+      <c r="T45" s="41" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6305,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3B9EAD-36F4-4B74-8350-B30B3341E79E}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6316,7 +6316,7 @@
     <col min="3" max="3" width="13.81640625" customWidth="1"/>
     <col min="4" max="4" width="7.90625" customWidth="1"/>
     <col min="5" max="5" width="9.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" customWidth="1"/>
     <col min="15" max="15" width="9.6328125" customWidth="1"/>
     <col min="16" max="16" width="11.08984375" customWidth="1"/>
     <col min="20" max="20" width="11.6328125" customWidth="1"/>
@@ -6367,10 +6367,10 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
       <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89" t="s">
+      <c r="O2" s="89" t="s">
         <v>92</v>
       </c>
+      <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
       <c r="R2" s="89"/>
       <c r="S2" s="91" t="s">
@@ -6402,27 +6402,27 @@
         <v>94</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="J3" s="68" t="s">
         <v>97</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L3" s="34" t="s">
         <v>99</v>
       </c>
       <c r="M3" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="69" t="s">
         <v>189</v>
       </c>
       <c r="P3" s="69" t="s">
@@ -6475,17 +6475,17 @@
       <c r="J4" s="19">
         <v>0</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="78">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L4" s="19">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0</v>
-      </c>
-      <c r="N4" s="78">
-        <v>1</v>
+      <c r="N4" s="19">
+        <v>0</v>
       </c>
       <c r="O4" s="19">
         <v>0</v>
@@ -6540,17 +6540,17 @@
       <c r="J5" s="19">
         <v>0</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="78">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="78">
-        <v>1</v>
+      <c r="N5" s="19">
+        <v>0</v>
       </c>
       <c r="O5" s="19">
         <v>0</v>
@@ -6605,14 +6605,14 @@
       <c r="J6" s="72">
         <v>1</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="78">
+        <v>1</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="L6" s="78">
-        <v>1</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0</v>
       </c>
       <c r="N6" s="19">
         <v>0</v>
@@ -6670,17 +6670,17 @@
       <c r="J7" s="19">
         <v>0</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="78">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="78">
-        <v>1</v>
+      <c r="N7" s="19">
+        <v>0</v>
       </c>
       <c r="O7" s="19">
         <v>0</v>
@@ -6735,14 +6735,14 @@
       <c r="J8" s="72">
         <v>1</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="78">
+        <v>1</v>
+      </c>
+      <c r="M8" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="L8" s="78">
-        <v>1</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0</v>
       </c>
       <c r="N8" s="19">
         <v>0</v>
@@ -6800,17 +6800,17 @@
       <c r="J9" s="72">
         <v>1</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="78">
+        <v>1</v>
+      </c>
+      <c r="L9" s="78">
+        <v>1</v>
+      </c>
+      <c r="M9" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="L9" s="78">
-        <v>1</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="78">
-        <v>1</v>
+      <c r="N9" s="19">
+        <v>0</v>
       </c>
       <c r="O9" s="19">
         <v>1</v>
@@ -6865,17 +6865,17 @@
       <c r="J10" s="72">
         <v>1</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="78">
+        <v>1</v>
+      </c>
+      <c r="L10" s="78">
+        <v>1</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="78">
-        <v>1</v>
-      </c>
-      <c r="M10" s="19">
-        <v>0</v>
-      </c>
-      <c r="N10" s="78">
-        <v>1</v>
+      <c r="N10" s="19">
+        <v>0</v>
       </c>
       <c r="O10" s="19">
         <v>1</v>
@@ -6930,14 +6930,14 @@
       <c r="J11" s="19">
         <v>0</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="78">
+        <v>1</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="L11" s="19">
-        <v>0</v>
-      </c>
-      <c r="M11" s="78">
-        <v>1</v>
       </c>
       <c r="N11" s="78">
         <v>1</v>
@@ -6995,14 +6995,14 @@
       <c r="J12" s="19">
         <v>0</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="78">
+        <v>1</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="L12" s="19">
-        <v>0</v>
-      </c>
-      <c r="M12" s="78">
-        <v>1</v>
       </c>
       <c r="N12" s="78">
         <v>1</v>
@@ -7060,14 +7060,14 @@
       <c r="J13" s="72">
         <v>1</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="78">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="L13" s="78">
-        <v>1</v>
-      </c>
-      <c r="M13" s="19">
-        <v>0</v>
       </c>
       <c r="N13" s="19">
         <v>0</v>
@@ -7125,17 +7125,17 @@
       <c r="J14" s="19">
         <v>0</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="78">
+        <v>1</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="L14" s="19">
-        <v>0</v>
-      </c>
-      <c r="M14" s="19">
-        <v>0</v>
-      </c>
-      <c r="N14" s="78">
-        <v>1</v>
+      <c r="N14" s="19">
+        <v>0</v>
       </c>
       <c r="O14" s="19">
         <v>0</v>
@@ -7190,14 +7190,14 @@
       <c r="J15" s="72">
         <v>1</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="78">
+        <v>1</v>
+      </c>
+      <c r="M15" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="L15" s="78">
-        <v>1</v>
-      </c>
-      <c r="M15" s="19">
-        <v>0</v>
       </c>
       <c r="N15" s="19">
         <v>0</v>
@@ -7255,14 +7255,14 @@
       <c r="J16" s="72">
         <v>1</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="78">
+        <v>1</v>
+      </c>
+      <c r="M16" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="L16" s="78">
-        <v>1</v>
-      </c>
-      <c r="M16" s="19">
-        <v>0</v>
       </c>
       <c r="N16" s="19">
         <v>0</v>
@@ -7320,14 +7320,14 @@
       <c r="J17" s="72">
         <v>1</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+      <c r="L17" s="78">
+        <v>1</v>
+      </c>
+      <c r="M17" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="L17" s="78">
-        <v>1</v>
-      </c>
-      <c r="M17" s="19">
-        <v>0</v>
       </c>
       <c r="N17" s="19">
         <v>0</v>
@@ -7385,14 +7385,14 @@
       <c r="J18" s="72">
         <v>1</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="19">
+        <v>0</v>
+      </c>
+      <c r="L18" s="78">
+        <v>1</v>
+      </c>
+      <c r="M18" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="L18" s="78">
-        <v>1</v>
-      </c>
-      <c r="M18" s="19">
-        <v>0</v>
       </c>
       <c r="N18" s="19">
         <v>0</v>
@@ -7450,17 +7450,17 @@
       <c r="J19" s="19">
         <v>0</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="78">
+        <v>1</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="L19" s="19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="78">
-        <v>1</v>
+      <c r="N19" s="19">
+        <v>0</v>
       </c>
       <c r="O19" s="19">
         <v>0</v>
@@ -7515,17 +7515,17 @@
       <c r="J20" s="19">
         <v>0</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="78">
+        <v>1</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="L20" s="19">
-        <v>0</v>
-      </c>
-      <c r="M20" s="19">
-        <v>0</v>
-      </c>
-      <c r="N20" s="78">
-        <v>1</v>
+      <c r="N20" s="19">
+        <v>0</v>
       </c>
       <c r="O20" s="19">
         <v>0</v>
@@ -7580,17 +7580,17 @@
       <c r="J21" s="72">
         <v>1</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="78">
+        <v>1</v>
+      </c>
+      <c r="L21" s="78">
+        <v>1</v>
+      </c>
+      <c r="M21" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="L21" s="78">
-        <v>1</v>
-      </c>
-      <c r="M21" s="19">
-        <v>0</v>
-      </c>
-      <c r="N21" s="78">
-        <v>1</v>
+      <c r="N21" s="19">
+        <v>0</v>
       </c>
       <c r="O21" s="19">
         <v>0</v>
@@ -7645,14 +7645,14 @@
       <c r="J22" s="72">
         <v>1</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+      <c r="L22" s="78">
+        <v>1</v>
+      </c>
+      <c r="M22" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="L22" s="78">
-        <v>1</v>
-      </c>
-      <c r="M22" s="19">
-        <v>0</v>
       </c>
       <c r="N22" s="19">
         <v>0</v>
@@ -7710,14 +7710,14 @@
       <c r="J23" s="72">
         <v>1</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+      <c r="L23" s="78">
+        <v>1</v>
+      </c>
+      <c r="M23" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="L23" s="78">
-        <v>1</v>
-      </c>
-      <c r="M23" s="19">
-        <v>0</v>
       </c>
       <c r="N23" s="19">
         <v>0</v>
@@ -7775,14 +7775,14 @@
       <c r="J24" s="72">
         <v>1</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+      <c r="L24" s="78">
+        <v>1</v>
+      </c>
+      <c r="M24" s="19" t="s">
         <v>291</v>
-      </c>
-      <c r="L24" s="78">
-        <v>1</v>
-      </c>
-      <c r="M24" s="19">
-        <v>0</v>
       </c>
       <c r="N24" s="19">
         <v>0</v>
@@ -7840,17 +7840,17 @@
       <c r="J25" s="19">
         <v>0</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="78">
+        <v>1</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L25" s="19">
-        <v>0</v>
-      </c>
-      <c r="M25" s="19">
-        <v>0</v>
-      </c>
-      <c r="N25" s="78">
-        <v>1</v>
+      <c r="N25" s="19">
+        <v>0</v>
       </c>
       <c r="O25" s="19">
         <v>0</v>
@@ -7905,17 +7905,17 @@
       <c r="J26" s="19">
         <v>0</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="78">
+        <v>1</v>
+      </c>
+      <c r="L26" s="19">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L26" s="19">
-        <v>0</v>
-      </c>
-      <c r="M26" s="19">
-        <v>0</v>
-      </c>
-      <c r="N26" s="78">
-        <v>1</v>
+      <c r="N26" s="19">
+        <v>0</v>
       </c>
       <c r="O26" s="19">
         <v>0</v>
@@ -7970,17 +7970,17 @@
       <c r="J27" s="19">
         <v>0</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="78">
+        <v>1</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L27" s="19">
-        <v>0</v>
-      </c>
-      <c r="M27" s="19">
-        <v>0</v>
-      </c>
-      <c r="N27" s="78">
-        <v>1</v>
+      <c r="N27" s="19">
+        <v>0</v>
       </c>
       <c r="O27" s="19">
         <v>0</v>
@@ -8035,17 +8035,17 @@
       <c r="J28" s="19">
         <v>0</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="78">
+        <v>1</v>
+      </c>
+      <c r="L28" s="19">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L28" s="19">
-        <v>0</v>
-      </c>
-      <c r="M28" s="19">
-        <v>0</v>
-      </c>
-      <c r="N28" s="78">
-        <v>1</v>
+      <c r="N28" s="19">
+        <v>0</v>
       </c>
       <c r="O28" s="19">
         <v>0</v>
@@ -8100,16 +8100,16 @@
       <c r="J29" s="72">
         <v>1</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="78">
+        <v>0</v>
+      </c>
+      <c r="L29" s="78">
+        <v>1</v>
+      </c>
+      <c r="M29" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="L29" s="78">
-        <v>1</v>
-      </c>
-      <c r="M29" s="19">
-        <v>0</v>
-      </c>
-      <c r="N29" s="78">
+      <c r="N29" s="19">
         <v>0</v>
       </c>
       <c r="O29" s="19">
@@ -8165,17 +8165,17 @@
       <c r="J30" s="19">
         <v>0</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="78">
+        <v>1</v>
+      </c>
+      <c r="L30" s="19">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L30" s="19">
-        <v>0</v>
-      </c>
-      <c r="M30" s="19">
-        <v>0</v>
-      </c>
-      <c r="N30" s="78">
-        <v>1</v>
+      <c r="N30" s="19">
+        <v>0</v>
       </c>
       <c r="O30" s="19">
         <v>0</v>
@@ -8230,17 +8230,17 @@
       <c r="J31" s="19">
         <v>0</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="78">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L31" s="19">
-        <v>0</v>
-      </c>
-      <c r="M31" s="19">
-        <v>0</v>
-      </c>
-      <c r="N31" s="78">
-        <v>1</v>
+      <c r="N31" s="19">
+        <v>0</v>
       </c>
       <c r="O31" s="19">
         <v>0</v>
@@ -8295,17 +8295,17 @@
       <c r="J32" s="19">
         <v>0</v>
       </c>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="78">
+        <v>1</v>
+      </c>
+      <c r="L32" s="19">
+        <v>0</v>
+      </c>
+      <c r="M32" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L32" s="19">
-        <v>0</v>
-      </c>
-      <c r="M32" s="19">
-        <v>0</v>
-      </c>
-      <c r="N32" s="78">
-        <v>1</v>
+      <c r="N32" s="19">
+        <v>0</v>
       </c>
       <c r="O32" s="19">
         <v>0</v>
@@ -8360,17 +8360,17 @@
       <c r="J33" s="19">
         <v>0</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="78">
+        <v>1</v>
+      </c>
+      <c r="L33" s="19">
+        <v>0</v>
+      </c>
+      <c r="M33" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L33" s="19">
-        <v>0</v>
-      </c>
-      <c r="M33" s="19">
-        <v>0</v>
-      </c>
-      <c r="N33" s="78">
-        <v>1</v>
+      <c r="N33" s="19">
+        <v>0</v>
       </c>
       <c r="O33" s="19">
         <v>0</v>
@@ -8425,17 +8425,17 @@
       <c r="J34" s="72">
         <v>1</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="78">
+        <v>2</v>
+      </c>
+      <c r="L34" s="78">
+        <v>1</v>
+      </c>
+      <c r="M34" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="L34" s="78">
-        <v>1</v>
-      </c>
-      <c r="M34" s="19">
-        <v>0</v>
-      </c>
-      <c r="N34" s="78">
-        <v>2</v>
+      <c r="N34" s="19">
+        <v>0</v>
       </c>
       <c r="O34" s="19">
         <v>0</v>
@@ -8490,17 +8490,17 @@
       <c r="J35" s="19">
         <v>0</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="78">
+        <v>1</v>
+      </c>
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L35" s="19">
-        <v>0</v>
-      </c>
-      <c r="M35" s="19">
-        <v>0</v>
-      </c>
-      <c r="N35" s="78">
-        <v>1</v>
+      <c r="N35" s="19">
+        <v>0</v>
       </c>
       <c r="O35" s="19">
         <v>0</v>
@@ -8555,17 +8555,17 @@
       <c r="J36" s="19">
         <v>0</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="K36" s="78">
+        <v>1</v>
+      </c>
+      <c r="L36" s="19">
+        <v>0</v>
+      </c>
+      <c r="M36" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L36" s="19">
-        <v>0</v>
-      </c>
-      <c r="M36" s="19">
-        <v>0</v>
-      </c>
-      <c r="N36" s="78">
-        <v>1</v>
+      <c r="N36" s="19">
+        <v>0</v>
       </c>
       <c r="O36" s="19">
         <v>0</v>
@@ -8620,17 +8620,17 @@
       <c r="J37" s="19">
         <v>0</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="K37" s="78">
+        <v>1</v>
+      </c>
+      <c r="L37" s="19">
+        <v>0</v>
+      </c>
+      <c r="M37" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="L37" s="19">
-        <v>0</v>
-      </c>
-      <c r="M37" s="19">
-        <v>0</v>
-      </c>
-      <c r="N37" s="78">
-        <v>1</v>
+      <c r="N37" s="19">
+        <v>0</v>
       </c>
       <c r="O37" s="19">
         <v>0</v>
@@ -8680,19 +8680,19 @@
         <v>0</v>
       </c>
       <c r="I38" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="19">
         <v>0</v>
       </c>
-      <c r="K38" s="19" t="s">
+      <c r="K38" s="19">
+        <v>0</v>
+      </c>
+      <c r="L38" s="19">
+        <v>0</v>
+      </c>
+      <c r="M38" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="L38" s="19">
-        <v>0</v>
-      </c>
-      <c r="M38" s="19">
-        <v>0</v>
       </c>
       <c r="N38" s="19">
         <v>0</v>
@@ -8750,17 +8750,17 @@
       <c r="J39" s="19">
         <v>0</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="K39" s="78">
+        <v>1</v>
+      </c>
+      <c r="L39" s="19">
+        <v>0</v>
+      </c>
+      <c r="M39" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L39" s="19">
-        <v>0</v>
-      </c>
-      <c r="M39" s="19">
-        <v>0</v>
-      </c>
-      <c r="N39" s="78">
-        <v>1</v>
+      <c r="N39" s="19">
+        <v>0</v>
       </c>
       <c r="O39" s="19">
         <v>0</v>
@@ -8815,17 +8815,17 @@
       <c r="J40" s="19">
         <v>0</v>
       </c>
-      <c r="K40" s="19" t="s">
+      <c r="K40" s="78">
+        <v>1</v>
+      </c>
+      <c r="L40" s="19">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L40" s="19">
-        <v>0</v>
-      </c>
-      <c r="M40" s="19">
-        <v>0</v>
-      </c>
-      <c r="N40" s="78">
-        <v>1</v>
+      <c r="N40" s="19">
+        <v>0</v>
       </c>
       <c r="O40" s="19">
         <v>0</v>
@@ -8880,17 +8880,17 @@
       <c r="J41" s="19">
         <v>0</v>
       </c>
-      <c r="K41" s="19" t="s">
+      <c r="K41" s="78">
+        <v>1</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L41" s="19">
-        <v>0</v>
-      </c>
-      <c r="M41" s="19">
-        <v>0</v>
-      </c>
-      <c r="N41" s="78">
-        <v>1</v>
+      <c r="N41" s="19">
+        <v>0</v>
       </c>
       <c r="O41" s="19">
         <v>0</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="19">
         <v>0</v>
@@ -8945,17 +8945,17 @@
       <c r="J42" s="19">
         <v>0</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="K42" s="78">
+        <v>2</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="L42" s="19">
-        <v>0</v>
-      </c>
-      <c r="M42" s="19">
-        <v>0</v>
-      </c>
-      <c r="N42" s="78">
-        <v>2</v>
+      <c r="N42" s="19">
+        <v>0</v>
       </c>
       <c r="O42" s="19">
         <v>0</v>
@@ -9010,17 +9010,17 @@
       <c r="J43" s="19">
         <v>0</v>
       </c>
-      <c r="K43" s="19" t="s">
+      <c r="K43" s="78">
+        <v>1</v>
+      </c>
+      <c r="L43" s="19">
+        <v>0</v>
+      </c>
+      <c r="M43" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L43" s="19">
-        <v>0</v>
-      </c>
-      <c r="M43" s="19">
-        <v>0</v>
-      </c>
-      <c r="N43" s="78">
-        <v>1</v>
+      <c r="N43" s="19">
+        <v>0</v>
       </c>
       <c r="O43" s="19">
         <v>0</v>
@@ -9075,17 +9075,17 @@
       <c r="J44" s="19">
         <v>0</v>
       </c>
-      <c r="K44" s="19" t="s">
+      <c r="K44" s="78">
+        <v>1</v>
+      </c>
+      <c r="L44" s="19">
+        <v>0</v>
+      </c>
+      <c r="M44" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L44" s="19">
-        <v>0</v>
-      </c>
-      <c r="M44" s="19">
-        <v>0</v>
-      </c>
-      <c r="N44" s="78">
-        <v>1</v>
+      <c r="N44" s="19">
+        <v>0</v>
       </c>
       <c r="O44" s="19">
         <v>0</v>
@@ -9140,17 +9140,17 @@
       <c r="J45" s="19">
         <v>0</v>
       </c>
-      <c r="K45" s="19" t="s">
+      <c r="K45" s="78">
+        <v>1</v>
+      </c>
+      <c r="L45" s="19">
+        <v>0</v>
+      </c>
+      <c r="M45" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="L45" s="19">
-        <v>0</v>
-      </c>
-      <c r="M45" s="19">
-        <v>0</v>
-      </c>
-      <c r="N45" s="78">
-        <v>1</v>
+      <c r="N45" s="19">
+        <v>0</v>
       </c>
       <c r="O45" s="19">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="19">
         <v>0</v>
@@ -9205,17 +9205,17 @@
       <c r="J46" s="19">
         <v>0</v>
       </c>
-      <c r="K46" s="19" t="s">
+      <c r="K46" s="78">
+        <v>2</v>
+      </c>
+      <c r="L46" s="19">
+        <v>0</v>
+      </c>
+      <c r="M46" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="L46" s="19">
-        <v>0</v>
-      </c>
-      <c r="M46" s="19">
-        <v>0</v>
-      </c>
-      <c r="N46" s="78">
-        <v>2</v>
+      <c r="N46" s="19">
+        <v>0</v>
       </c>
       <c r="O46" s="19">
         <v>0</v>
@@ -9241,10 +9241,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:U2"/>
-    <mergeCell ref="K2:O2"/>
     <mergeCell ref="D2:I2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mips_Pipeline_Test.xlsx
+++ b/Mips_Pipeline_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CTI_3rd_year_1\Structure_of_Computer_Systems\SCS-Assignment-Pipeline-MIPS-CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B02CC8-D7B2-416A-90A7-99914D810D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56C4C9-FE8C-4C94-BB77-01C8E714E990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AE386CA4-EDC2-4F06-A869-52A3BC7A21B9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="305">
   <si>
     <t>PC</t>
   </si>
@@ -370,12 +370,6 @@
   </si>
   <si>
     <t>Jump address</t>
-  </si>
-  <si>
-    <t>Jump Register address</t>
-  </si>
-  <si>
-    <t>Rs</t>
   </si>
   <si>
     <t>Rt</t>
@@ -837,32 +831,6 @@
     <t>0x0000_0016</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BGT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">           R15, R1, 5</t>
-    </r>
-  </si>
-  <si>
-    <t>if RF[15] &gt; RF[1] then PC &lt;- PC + 5 else     PC &lt;- PC + 1</t>
-  </si>
-  <si>
     <t>if RF[3] &lt; then RF[31] &lt;- PC + 1, PC &lt;- PC + 4 else PC &lt;- PC + 1</t>
   </si>
   <si>
@@ -938,21 +906,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">JAL            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
     <t>RF[31] &lt;- PC + 1, PC &lt;- 1</t>
   </si>
   <si>
@@ -1739,9 +1692,6 @@
     <t>0x0000_001E</t>
   </si>
   <si>
-    <t>0x0000_0203</t>
-  </si>
-  <si>
     <t>0x000a_0000</t>
   </si>
   <si>
@@ -1751,22 +1701,10 @@
     <t>0x0203_0001</t>
   </si>
   <si>
-    <t>0x000A_0000</t>
-  </si>
-  <si>
-    <t>0x0203_000</t>
-  </si>
-  <si>
     <t>PC = 0x0000_0001E</t>
   </si>
   <si>
-    <t>0xC000_000A</t>
-  </si>
-  <si>
     <t>0x0000_01F</t>
-  </si>
-  <si>
-    <t>0x0000_027</t>
   </si>
   <si>
     <t>0x0000_02B</t>
@@ -1864,6 +1802,62 @@
   </si>
   <si>
     <t xml:space="preserve"> Bezr</t>
+  </si>
+  <si>
+    <t>Jump Register address(Rs)</t>
+  </si>
+  <si>
+    <t>Rd</t>
+  </si>
+  <si>
+    <t>0xC000_0017</t>
+  </si>
+  <si>
+    <t>0xC000_0001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BGT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           R15, R1, 4</t>
+    </r>
+  </si>
+  <si>
+    <t>if RF[15] &gt; RF[1] then PC &lt;- PC + 4 else     PC &lt;- PC + 1</t>
+  </si>
+  <si>
+    <t>0x0000_4006</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JALR            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2108,7 +2102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2294,6 +2288,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2321,8 +2318,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2666,14 +2663,14 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="I2" s="84" t="s">
+      <c r="G2" s="84"/>
+      <c r="I2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -2923,13 +2920,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F12" s="4">
         <v>8</v>
@@ -3058,10 +3055,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>54</v>
@@ -3139,10 +3136,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>67</v>
@@ -3166,10 +3163,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>20</v>
@@ -3549,10 +3546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2326B967-B418-496E-AAA0-FF8CE45CE59E}">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3561,51 +3558,51 @@
     <col min="2" max="2" width="12.7265625" customWidth="1"/>
     <col min="3" max="3" width="22.6328125" customWidth="1"/>
     <col min="4" max="4" width="27.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="8" width="19.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" customWidth="1"/>
     <col min="11" max="11" width="12.7265625" customWidth="1"/>
     <col min="12" max="13" width="13.36328125" customWidth="1"/>
     <col min="14" max="14" width="13.1796875" customWidth="1"/>
-    <col min="15" max="15" width="14.54296875" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" customWidth="1"/>
     <col min="16" max="16" width="13.6328125" customWidth="1"/>
-    <col min="17" max="17" width="17.36328125" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" customWidth="1"/>
-    <col min="19" max="19" width="15.36328125" customWidth="1"/>
-    <col min="20" max="20" width="13.81640625" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88" t="s">
+      <c r="J1" s="88"/>
+      <c r="K1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89" t="s">
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="90" t="s">
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="90"/>
-    </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="91"/>
+    </row>
+    <row r="2" spans="1:21" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>98</v>
       </c>
@@ -3628,13 +3625,13 @@
         <v>110</v>
       </c>
       <c r="H2" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>113</v>
+      <c r="J2" s="93" t="s">
+        <v>298</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>42</v>
@@ -3643,28 +3640,28 @@
         <v>47</v>
       </c>
       <c r="M2" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="82" t="s">
+      <c r="Q2" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="82" t="s">
+      <c r="S2" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="R2" s="82" t="s">
+      <c r="T2" s="80" t="s">
         <v>119</v>
-      </c>
-      <c r="S2" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>121</v>
       </c>
       <c r="U2" s="19"/>
     </row>
@@ -3673,2618 +3670,2650 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C4" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="D5" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="T3" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>192</v>
-      </c>
       <c r="I5" s="33" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>210</v>
+        <v>175</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="N6" s="62" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S6" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="T6" s="56" t="s">
-        <v>195</v>
+        <v>175</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>241</v>
-      </c>
       <c r="D7" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="N7" s="63" t="s">
-        <v>194</v>
+        <v>201</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>190</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S7" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="T7" s="41" t="s">
-        <v>210</v>
+        <v>187</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>246</v>
+        <v>187</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>205</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S8" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="T8" s="62" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="S8" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="T8" s="56" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="N9" s="56" t="s">
-        <v>185</v>
+        <v>201</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>180</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S9" s="63" t="s">
-        <v>240</v>
-      </c>
-      <c r="T9" s="63" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>280</v>
+        <v>187</v>
+      </c>
+      <c r="N10" s="63" t="s">
+        <v>189</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S10" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="T10" s="42" t="s">
-        <v>196</v>
+        <v>187</v>
+      </c>
+      <c r="S10" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="T10" s="62" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="N11" s="62" t="s">
-        <v>180</v>
+        <v>187</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>241</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>192</v>
       </c>
       <c r="Q11" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="T11" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="R11" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S11" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="T11" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="I12" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="J12" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="N12" s="63" t="s">
-        <v>281</v>
-      </c>
       <c r="O12" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S12" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="T12" s="41" t="s">
-        <v>198</v>
+        <v>187</v>
+      </c>
+      <c r="S12" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="T12" s="42" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="S13" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="T13" s="56" t="s">
         <v>194</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="N13" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="O13" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S13" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="T13" s="62" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J14" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="N14" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="T14" s="41" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="N14" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S14" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T14" s="63" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>206</v>
+        <v>201</v>
+      </c>
+      <c r="N15" s="63" t="s">
+        <v>272</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S15" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="T15" s="42" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="S15" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="T15" s="62" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>180</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="N16" s="62" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>189</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S16" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="T16" s="56" t="s">
-        <v>181</v>
+        <v>187</v>
+      </c>
+      <c r="S16" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="T16" s="63" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="N17" s="63" t="s">
-        <v>200</v>
+      <c r="N17" s="56" t="s">
+        <v>195</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S17" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="T17" s="41" t="s">
-        <v>206</v>
+        <v>187</v>
+      </c>
+      <c r="S17" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="N18" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="N18" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S18" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="T18" s="62" t="s">
-        <v>200</v>
+        <v>187</v>
+      </c>
+      <c r="S18" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="T18" s="56" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="N19" s="56" t="s">
-        <v>203</v>
+        <v>270</v>
+      </c>
+      <c r="N19" s="62" t="s">
+        <v>195</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S19" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T19" s="63" t="s">
-        <v>279</v>
+        <v>187</v>
+      </c>
+      <c r="S19" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="T19" s="41" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>233</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="N20" s="41" t="s">
-        <v>235</v>
+        <v>188</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>195</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S20" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="T20" s="42" t="s">
-        <v>202</v>
+        <v>187</v>
+      </c>
+      <c r="S20" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="T20" s="62" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>257</v>
-      </c>
       <c r="E21" s="60" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="N21" s="62" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="N21" s="42" t="s">
+        <v>197</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S21" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="T21" s="56" t="s">
-        <v>203</v>
+        <v>187</v>
+      </c>
+      <c r="S21" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="T21" s="63" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="F22" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="N22" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="S22" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="T22" s="42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="K22" s="33" t="s">
+      <c r="D23" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L22" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="N22" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="S22" s="41" t="s">
+      <c r="I23" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="T22" s="41" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>251</v>
-      </c>
       <c r="J23" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="K23" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="N23" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>192</v>
-      </c>
       <c r="Q23" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S23" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="T23" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="S23" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="T23" s="56" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R24" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="S24" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="T24" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="N24" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q24" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="S24" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="T24" s="41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R25" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="N25" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>240</v>
       </c>
       <c r="S25" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T25" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R26" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="N26" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="O26" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="S26" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T26" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R27" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S27" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T27" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>192</v>
+        <v>274</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="M28" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="N28" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="O28" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="P28" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q28" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="R28" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S28" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="T28" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="S28" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="T28" s="62" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="F29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>241</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R29" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="S29" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="T29" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="T29" s="42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="M30" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P30" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R30" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S30" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T30" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R31" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="N31" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q31" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R31" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="S31" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T31" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S32" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T32" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>192</v>
+        <v>165</v>
+      </c>
+      <c r="F33" t="s">
+        <v>177</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="K33" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="L33" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="M33" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="N33" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="O33" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S33" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="T33" s="42" t="s">
-        <v>284</v>
+        <v>187</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="R33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="S33" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="T33" s="33" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T34" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>233</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P35" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R35" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="S35" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="T35" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I36" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q36" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R36" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="N36" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="S36" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T36" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="J37" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="K37" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="L37" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="M37" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="N37" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="O37" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="R37" s="27" t="s">
+        <v>187</v>
       </c>
       <c r="S37" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T37" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>247</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R38" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S38" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T38" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P39" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q39" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R39" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S39" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T39" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R40" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="S40" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="T40" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+      <c r="N40" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="O40" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E41" s="61" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="J41" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="K41" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="L41" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="M41" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="N41" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="O41" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="P41" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q41" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="R41" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="S41" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="T41" s="63" t="s">
-        <v>285</v>
+        <v>187</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="R41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="S41" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="T41" s="42" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>258</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R42" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S42" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T42" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="M43" s="33" t="s">
+        <v>180</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O43" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q43" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R43" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="S43" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="T43" s="33" t="s">
-        <v>192</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L44" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M44" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q44" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R44" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="N44" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="O44" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P44" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q44" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R44" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="S44" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T44" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="R45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="S45" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="T45" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="T46" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="35">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="J45" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="K45" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="L45" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="M45" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="N45" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="O45" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R45" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="S45" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="T45" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>50</v>
-      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="T47" s="41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>56</v>
       </c>
     </row>
@@ -6306,7 +6335,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:N2"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6350,38 +6379,38 @@
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="91" t="s">
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>0</v>
@@ -6389,14 +6418,14 @@
       <c r="C3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>304</v>
+      <c r="D3" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>294</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>94</v>
@@ -6423,7 +6452,7 @@
         <v>100</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P3" s="69" t="s">
         <v>104</v>
@@ -6449,10 +6478,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -6482,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N4" s="19">
         <v>0</v>
@@ -6514,11 +6543,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="71" t="s">
-        <v>190</v>
-      </c>
       <c r="D5" s="19">
         <v>0</v>
       </c>
@@ -6547,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N5" s="19">
         <v>0</v>
@@ -6579,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C6" s="71" t="s">
         <v>102</v>
@@ -6612,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N6" s="19">
         <v>0</v>
@@ -6644,11 +6673,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="71" t="s">
-        <v>211</v>
-      </c>
       <c r="D7" s="19">
         <v>0</v>
       </c>
@@ -6677,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N7" s="19">
         <v>0</v>
@@ -6709,10 +6738,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
@@ -6742,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N8" s="19">
         <v>0</v>
@@ -6774,10 +6803,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D9" s="19">
         <v>0</v>
@@ -6807,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N9" s="19">
         <v>0</v>
@@ -6839,10 +6868,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
@@ -6872,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N10" s="19">
         <v>0</v>
@@ -6904,10 +6933,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
@@ -6937,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="N11" s="78">
         <v>1</v>
@@ -6969,10 +6998,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -7002,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N12" s="78">
         <v>1</v>
@@ -7034,10 +7063,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D13" s="19">
         <v>0</v>
@@ -7067,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="N13" s="19">
         <v>0</v>
@@ -7099,10 +7128,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
@@ -7132,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N14" s="19">
         <v>0</v>
@@ -7164,10 +7193,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D15" s="19">
         <v>0</v>
@@ -7197,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N15" s="19">
         <v>0</v>
@@ -7229,10 +7258,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D16" s="19">
         <v>0</v>
@@ -7262,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N16" s="19">
         <v>0</v>
@@ -7294,10 +7323,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -7327,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N17" s="19">
         <v>0</v>
@@ -7359,10 +7388,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D18" s="19">
         <v>0</v>
@@ -7392,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N18" s="19">
         <v>0</v>
@@ -7424,10 +7453,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D19" s="19">
         <v>0</v>
@@ -7457,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="N19" s="19">
         <v>0</v>
@@ -7489,10 +7518,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D20" s="19">
         <v>0</v>
@@ -7522,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="N20" s="19">
         <v>0</v>
@@ -7554,10 +7583,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D21" s="19">
         <v>0</v>
@@ -7587,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N21" s="19">
         <v>0</v>
@@ -7619,10 +7648,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D22" s="19">
         <v>0</v>
@@ -7652,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="N22" s="19">
         <v>0</v>
@@ -7684,10 +7713,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D23" s="19">
         <v>0</v>
@@ -7717,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N23" s="19">
         <v>0</v>
@@ -7749,10 +7778,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D24" s="74">
         <v>1</v>
@@ -7782,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N24" s="19">
         <v>0</v>
@@ -7814,10 +7843,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D25" s="19">
         <v>0</v>
@@ -7847,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N25" s="19">
         <v>0</v>
@@ -7879,10 +7908,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="19">
         <v>0</v>
@@ -7912,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N26" s="19">
         <v>0</v>
@@ -7944,10 +7973,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" s="19">
         <v>0</v>
@@ -7977,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N27" s="19">
         <v>0</v>
@@ -8009,10 +8038,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D28" s="19">
         <v>0</v>
@@ -8042,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N28" s="19">
         <v>0</v>
@@ -8074,10 +8103,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D29" s="74">
         <v>0</v>
@@ -8107,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N29" s="19">
         <v>0</v>
@@ -8139,10 +8168,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" s="19">
         <v>0</v>
@@ -8172,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N30" s="19">
         <v>0</v>
@@ -8204,10 +8233,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D31" s="19">
         <v>0</v>
@@ -8237,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N31" s="19">
         <v>0</v>
@@ -8269,10 +8298,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="19">
         <v>0</v>
@@ -8302,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N32" s="19">
         <v>0</v>
@@ -8334,10 +8363,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D33" s="19">
         <v>0</v>
@@ -8367,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N33" s="19">
         <v>0</v>
@@ -8399,10 +8428,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D34" s="74">
         <v>0</v>
@@ -8432,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N34" s="19">
         <v>0</v>
@@ -8464,10 +8493,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" s="19">
         <v>0</v>
@@ -8497,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N35" s="19">
         <v>0</v>
@@ -8529,10 +8558,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" s="19">
         <v>0</v>
@@ -8562,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N36" s="19">
         <v>0</v>
@@ -8594,10 +8623,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" s="19">
         <v>0</v>
@@ -8627,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N37" s="19">
         <v>0</v>
@@ -8659,10 +8688,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D38" s="19">
         <v>0</v>
@@ -8692,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N38" s="19">
         <v>0</v>
@@ -8724,10 +8753,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="19">
         <v>0</v>
@@ -8757,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N39" s="19">
         <v>0</v>
@@ -8789,10 +8818,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="19">
         <v>0</v>
@@ -8822,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N40" s="19">
         <v>0</v>
@@ -8854,10 +8883,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="19">
         <v>0</v>
@@ -8887,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N41" s="19">
         <v>0</v>
@@ -8919,10 +8948,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D42" s="19">
         <v>0</v>
@@ -8952,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N42" s="19">
         <v>0</v>
@@ -8984,10 +9013,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" s="19">
         <v>0</v>
@@ -9017,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N43" s="19">
         <v>0</v>
@@ -9049,10 +9078,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D44" s="19">
         <v>0</v>
@@ -9082,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N44" s="19">
         <v>0</v>
@@ -9114,10 +9143,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="19">
         <v>0</v>
@@ -9147,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N45" s="19">
         <v>0</v>
@@ -9179,10 +9208,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C46" s="77" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D46" s="19">
         <v>0</v>
@@ -9212,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N46" s="19">
         <v>0</v>
@@ -9261,14 +9290,14 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="E3" s="84" t="s">
+      <c r="C3" s="84"/>
+      <c r="E3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
